--- a/public/template_kategori.xlsx
+++ b/public/template_kategori.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A708C8F9-70C1-4FBD-93AC-14AFE9129769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E092F400-5D93-43F8-A41C-B0229F78D2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="11676" windowHeight="8880" xr2:uid="{41E48D0D-58E1-48FB-8530-06CCB61A5B98}"/>
+    <workbookView xWindow="8724" yWindow="600" windowWidth="11676" windowHeight="8880" xr2:uid="{41E48D0D-58E1-48FB-8530-06CCB61A5B98}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>kategori_kode</t>
   </si>
@@ -42,16 +42,10 @@
     <t>kategori_nama</t>
   </si>
   <si>
-    <t>MP</t>
+    <t>AIS</t>
   </si>
   <si>
-    <t>Makanan Pokok</t>
-  </si>
-  <si>
-    <t>PRT</t>
-  </si>
-  <si>
-    <t>Perabotan Rumah Tangga</t>
+    <t>Alat Ibadah Sholat</t>
   </si>
 </sst>
 </file>
@@ -417,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D19A603-53AA-4605-8C01-A3D338ACC84F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,14 +439,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
